--- a/forwardprimer-v3_21.xlsx
+++ b/forwardprimer-v3_21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_21" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1921-ACACTCGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTCGACTTCGTCGGCAGCGTC</t>
+    <t>F1921-GGAACTTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACTTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1922-TCTGACAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACAAGCTCGTCGGCAGCGTC</t>
+    <t>F1922-ATGCTGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1923-AGACCTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCTAGGTTCGTCGGCAGCGTC</t>
+    <t>F1923-GACGTGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGTGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1924-TCTGACTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACTGCATCGTCGGCAGCGTC</t>
+    <t>F1924-ACAGTCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1925-TACCTGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTGTGATTCGTCGGCAGCGTC</t>
+    <t>F1925-CGATGATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATGATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1926-GTCATGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGACATTCGTCGGCAGCGTC</t>
+    <t>F1926-CGTTGACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1927-GTTGACTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACTGTTTCGTCGGCAGCGTC</t>
+    <t>F1927-TACGTCTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1928-GTGGACACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGACACATTCGTCGGCAGCGTC</t>
+    <t>F1928-GTCTAGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1929-TCGTCACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCACGATTCGTCGGCAGCGTC</t>
+    <t>F1929-ACAACTCGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTCGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1930-AGTCCATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCATCGTTCGTCGGCAGCGTC</t>
+    <t>F1930-GAACTGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1931-CTGTTCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCTAGCTCGTCGGCAGCGTC</t>
+    <t>F1931-ACATGTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1932-AGAACCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCTCAGTCGTCGGCAGCGTC</t>
+    <t>F1932-GAAGCAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1933-ATCTGAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGAGATGTCGTCGGCAGCGTC</t>
+    <t>F1933-CCATCAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCAACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1934-AAGGACTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGACTGTGTCGTCGGCAGCGTC</t>
+    <t>F1934-CAGTGAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGAACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1935-TAGGTCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTCCTTCTCGTCGGCAGCGTC</t>
+    <t>F1935-AGTCGTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1936-TGTGGTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTACTCTCGTCGGCAGCGTC</t>
+    <t>F1936-AAGCTGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1937-TGTGAACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAACAACTCGTCGGCAGCGTC</t>
+    <t>F1937-ATCAGTGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGTGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1938-TGTACTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACTCTCATCGTCGGCAGCGTC</t>
+    <t>F1938-CTCATGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1939-TACGAGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGGATGTCGTCGGCAGCGTC</t>
+    <t>F1939-CTGAAGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1940-ACCAAGCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGCATGTCGTCGGCAGCGTC</t>
+    <t>F1940-AGTGTCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTCAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1941-GACCTGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTGATGATCGTCGGCAGCGTC</t>
+    <t>F1941-ATCTACCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTACCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1942-GGAGAGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAGTTCTTCGTCGGCAGCGTC</t>
+    <t>F1942-GCTAGATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGATCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1943-TTCCAGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGATCATCGTCGGCAGCGTC</t>
+    <t>F1943-GTTCAGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1944-TGACTGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTGACCATCGTCGGCAGCGTC</t>
+    <t>F1944-GATCATGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCATGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1945-TCTCTTGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTGGTCTCGTCGGCAGCGTC</t>
+    <t>F1945-TAGGAGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1946-GATGTGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGCTGATCGTCGGCAGCGTC</t>
+    <t>F1946-CAAGAAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1947-CGTGTGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTGAAGTTCGTCGGCAGCGTC</t>
+    <t>F1947-ACCATGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATGCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1948-TACCTACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACCATTCGTCGGCAGCGTC</t>
+    <t>F1948-ACTCGTTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGTTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1949-AGTGTCAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTCAGGATCGTCGGCAGCGTC</t>
+    <t>F1949-TTGGACCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGACCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1950-TTGAGTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGTGAACTCGTCGGCAGCGTC</t>
+    <t>F1950-ATGAGTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGTGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1951-GTCGATCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGATCACATCGTCGGCAGCGTC</t>
+    <t>F1951-CAACTAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1952-GTAGGTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTGGTATCGTCGGCAGCGTC</t>
+    <t>F1952-CAACAGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1953-AGGATCTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCTGAGTCGTCGGCAGCGTC</t>
+    <t>F1953-GTAGAAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAAGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1954-AGTGCATGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCATGTTTCGTCGGCAGCGTC</t>
+    <t>F1954-CATCAGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1955-GAAGAACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAACGATTCGTCGGCAGCGTC</t>
+    <t>F1955-TCTACACACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACACACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1956-TGAGGATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGATGCTTCGTCGGCAGCGTC</t>
+    <t>F1956-TACCTCGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1957-TACGTGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGAGTTTCGTCGGCAGCGTC</t>
+    <t>F1957-GGACTTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1958-GGTAGTAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGTAGACTCGTCGGCAGCGTC</t>
+    <t>F1958-AGATCCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1959-AGCTGTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTAGCTTCGTCGGCAGCGTC</t>
+    <t>F1959-AACATGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1960-TCTCAGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGGAGATCGTCGGCAGCGTC</t>
+    <t>F1960-GTGAAGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1961-ATCCTACCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTACCTCTCGTCGGCAGCGTC</t>
+    <t>F1961-TGATCAAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCAAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1962-AACACCTACA</t>
+    <t>F1962-GCAAGTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F1963-TGTTCGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1964-TAGTGCTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGCTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F1965-GGTTCAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCAGGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F1966-ACTCTGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F1967-GGTCTCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCTCTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F1968-TCCAGGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGGTTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1969-CTCGAACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAACGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1970-GTACACCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1971-GTTCCTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1972-TCTGCTTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1973-AGAGTTGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTTGTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1974-CGAACTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTCCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1975-TCACGACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGACTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1976-CATGGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGGAGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1977-CTTGAGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1978-ACACCACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCACAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1979-GTCATGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1980-TGCTCTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1981-AGAGAGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAGTGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1982-ATCGTTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1983-GAGGATCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGATCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1984-CTCACTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACTGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1985-AACACCTACA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAACACCTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F1963-TGGACTTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGACTTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F1964-CAAGAGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGTCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F1965-GGTGTTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTCTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F1966-ATCCATGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCATGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F1967-GTGCAAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAAGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F1968-ACAGTCCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCCAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1969-AGAGGTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGTCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F1970-AACCTTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1971-GGATGGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGGTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1972-GATGGTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTTCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1973-CAGTCTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1974-TCATGAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1975-AGCTCTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCTCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1976-CCTTCTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1977-AGTGACACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1978-GCAACATGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAACATGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1979-CTGAGACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGACACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1980-AGACTAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTAGCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1981-ATCTCGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1982-GAAGAAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAAGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1983-GTACAGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1984-AGGACGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGACGTAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1985-TTGAAGGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAAGGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1986-TGACGAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAGTAGTCGTCGGCAGCGTC</t>
+    <t>F1986-CTAGACTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1987-TCCTTCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCTCATTCGTCGGCAGCGTC</t>
+    <t>F1987-CAACGAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1988-TAGAGGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGGTGTGTCGTCGGCAGCGTC</t>
+    <t>F1988-TACGTGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1989-GCTGCTTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGCTTGATTCGTCGGCAGCGTC</t>
+    <t>F1989-ACTCACTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1990-CTAGTACTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTACTCCTCGTCGGCAGCGTC</t>
+    <t>F1990-CAGGAACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGAACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1991-ATGAAGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGCTAGTCGTCGGCAGCGTC</t>
+    <t>F1991-TAGCAACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAACTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1992-GTAGTTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTTCCTTTCGTCGGCAGCGTC</t>
+    <t>F1992-TCACAGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1993-GATGCAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCAAGCTTCGTCGGCAGCGTC</t>
+    <t>F1993-ACATCAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1994-ATCTGGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGGATCCTCGTCGGCAGCGTC</t>
+    <t>F1994-AGACATCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACATCAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1995-GTCACTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTAGCATCGTCGGCAGCGTC</t>
+    <t>F1995-AGGACACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1996-GACGTAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGTAGTAGTCGTCGGCAGCGTC</t>
+    <t>F1996-ATGATCCTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATCCTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1997-TCATCCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCATCCTCGTCGGCAGCGTC</t>
+    <t>F1997-GAAGTCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1998-GTAGAGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGCTTGTCGTCGGCAGCGTC</t>
+    <t>F1998-ATGGACTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGACTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1999-GTCATGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGATCGTCGTCGGCAGCGTC</t>
+    <t>F1999-ACTCGAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2000-TTCCTACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTACACGTCGTCGGCAGCGTC</t>
+    <t>F2000-GTAGCATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCATGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2001-AGTCTGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGACGTTCGTCGGCAGCGTC</t>
+    <t>F2001-GCATCTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2002-AGCACACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACACAGTTCGTCGGCAGCGTC</t>
+    <t>F2002-AGATGACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2003-CGTAGACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGACAACTCGTCGGCAGCGTC</t>
+    <t>F2003-TACAGGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2004-ATCTCATGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCATGTCTCGTCGGCAGCGTC</t>
+    <t>F2004-ATGCAGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2005-TACGTCTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCTCCTTCGTCGGCAGCGTC</t>
+    <t>F2005-TGTTCGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2006-GAGTAGTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTAGTCCTTCGTCGGCAGCGTC</t>
+    <t>F2006-ACATGTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGTGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2007-GGATGAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGAGGTTTCGTCGGCAGCGTC</t>
+    <t>F2007-GTTGACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2008-TTCGATCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGATCTAGTCGTCGGCAGCGTC</t>
+    <t>F2008-GTGTAGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2009-GTTGGAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGAAGGTTCGTCGGCAGCGTC</t>
+    <t>F2009-AGAGACTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2010-CATCGTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTCACTTCGTCGGCAGCGTC</t>
+    <t>F2010-GCAAGAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGAGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2011-CATCCATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCATCCTTCGTCGGCAGCGTC</t>
+    <t>F2011-TGACCAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2012-AACATCCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATCCTGATCGTCGGCAGCGTC</t>
+    <t>F2012-AACCTCTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2013-TCGACAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACAAGTCTCGTCGGCAGCGTC</t>
+    <t>F2013-GTTCTGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2014-AACCTCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCACACTCGTCGGCAGCGTC</t>
+    <t>F2014-GAACATCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACATCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2015-TCTTGACTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGACTCCTCGTCGGCAGCGTC</t>
+    <t>F2015-TAGCACTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2016-GTACAAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAAGAGCTCGTCGGCAGCGTC</t>
+    <t>F2016-CGTTGGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGGAAGATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
